--- a/input data/Legend.xlsx
+++ b/input data/Legend.xlsx
@@ -11,10 +11,10 @@
     <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Tabelle1!$G$1:$J$155</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Tabelle1!$F$1:$G$54</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Tabelle1!$G$1:$G$155</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Tabelle1!$A$1:$A$155</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Tabelle1!$F$1:$G$73</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Tabelle1!$G$1:$J$174</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Tabelle1!$G$1:$G$174</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Tabelle1!$A$1:$A$174</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="188">
   <si>
     <t xml:space="preserve">variable</t>
   </si>
@@ -43,6 +43,9 @@
     <t xml:space="preserve">variable_type</t>
   </si>
   <si>
+    <t xml:space="preserve">variable_class</t>
+  </si>
+  <si>
     <t xml:space="preserve">center</t>
   </si>
   <si>
@@ -70,6 +73,9 @@
     <t xml:space="preserve">Time point</t>
   </si>
   <si>
+    <t xml:space="preserve">ignore</t>
+  </si>
+  <si>
     <t xml:space="preserve">age_fc</t>
   </si>
   <si>
@@ -82,7 +88,10 @@
     <t xml:space="preserve">y</t>
   </si>
   <si>
-    <t xml:space="preserve">ignore</t>
+    <t xml:space="preserve">independent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">demography</t>
   </si>
   <si>
     <t xml:space="preserve">WHOFc</t>
@@ -103,240 +112,309 @@
     <t xml:space="preserve">m</t>
   </si>
   <si>
+    <t xml:space="preserve">performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mPAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean pulmonary arterial pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmHg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cardiac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GFR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTproBNP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NT-pro-BNP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pg/ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Firstdiagnosisdate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date of first diagnosis, dd/mm/yyyy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagnosis date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">event1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-year mortality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">response</t>
+  </si>
+  <si>
+    <t xml:space="preserve">event3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-year mortality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">event5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-year mortality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">death_study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">overall mortality during the study period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overall mortality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">death_study_fct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Survival_time_from_FD_months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">survival time from the diagnosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surv_months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date_of_death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">death date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Death date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">observation_time_yrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">observation time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obs. Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age_class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stratified age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mPAP_class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean pulmonary arterial pressure, stratified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dPAP_class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diastolic pulmonary arterial pressure, stratified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dPAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TPG_class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transpulmonary pressure gradient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TPG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PVR_class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulmonary vascular resistance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PVR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCWP_class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulmonary capillary wedge pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCWP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anemia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anemia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hematology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDW_class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDW_log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log RDW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GFR_class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">renal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">renal_ins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renal insufficiency, GFR &lt; 60%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renal insufficiency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FT_class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ferritin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ng/ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FT_log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log FT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSAT_class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferrin saturation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TF-Sat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSAT_log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log TF-Sat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iron_def_class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iron deficienty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fe-deficiency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCV_class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTproBNP_class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTproBNP_log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log NT-pro-BNP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percardial_effusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percardial effusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAA_class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right Atrial Area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cm2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RA_area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CI_class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cardiac index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CI</t>
+  </si>
+  <si>
     <t xml:space="preserve">cardiac_index</t>
   </si>
   <si>
-    <t xml:space="preserve">Cardiac index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mPAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean pulmonary artherial pressure, stratified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmHg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GFR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTproBNP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NT-pro-BNP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pg/ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Firstdiagnosisdate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date of first diagnosis, dd/mm/yyyy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diagnosis date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">death_acute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-year mortality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">response</t>
-  </si>
-  <si>
-    <t xml:space="preserve">death_study</t>
-  </si>
-  <si>
-    <t xml:space="preserve">overall mortality during the study period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overall mortality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Survival_time_from_FD_months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">survival time from the diagnosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date_of_death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">death date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Death date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">observation_time_yrs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">observation time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obs. Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">age_class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stratified age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">independent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mPAP_class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dPAP_class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diastolic pulmonary artherial pressure, stratified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dPAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TPG_class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transpulmonary pressure gradient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TPG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PVR_class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pulmonary vascular resistance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PVR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCWP_class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pulmonary capillary wedge pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCWP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anemia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anemia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RDW_class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RDW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GFR_class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FT_class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ferritin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ng/ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TSAT_class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transferrin saturation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TF-Sat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iron_def_class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iron deficienty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fe-deficiency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCV_class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTproBNP_class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NtproBNP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percardial_effusion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percardial effusion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percard. Eff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAA_class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Right Atrial Area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cm2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CI_class</t>
-  </si>
-  <si>
     <t xml:space="preserve">mRAP_class</t>
   </si>
   <si>
@@ -364,6 +442,9 @@
     <t xml:space="preserve">SO2</t>
   </si>
   <si>
+    <t xml:space="preserve">SO2_RL</t>
+  </si>
+  <si>
     <t xml:space="preserve">SvO2_class</t>
   </si>
   <si>
@@ -481,10 +562,16 @@
     <t xml:space="preserve">FRENCH score, 3 parameters</t>
   </si>
   <si>
+    <t xml:space="preserve">FPHR 3p</t>
+  </si>
+  <si>
     <t xml:space="preserve">FRENCH4p</t>
   </si>
   <si>
     <t xml:space="preserve">FRENCH score, 4 parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FPHR 4p</t>
   </si>
   <si>
     <t xml:space="preserve">Reveal_lite2_3_cat</t>
@@ -618,13 +705,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C57" activeCellId="1" sqref="D57 C57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="63.1"/>
@@ -651,7 +738,9 @@
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -659,16 +748,16 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -677,224 +766,236 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>31</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>18</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>48</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="F16" s="1"/>
     </row>
@@ -912,7 +1013,7 @@
         <v>55</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="F17" s="1"/>
     </row>
@@ -921,76 +1022,76 @@
         <v>56</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="F19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="F20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="F21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -998,9 +1099,11 @@
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
@@ -1010,85 +1113,87 @@
         <v>69</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="F23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="D24" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="F24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="F25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="0" t="s">
         <v>77</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>78</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="F26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
@@ -1101,482 +1206,860 @@
         <v>82</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="F28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F30" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="F31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B32" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="E32" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F32" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D33" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="E33" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F33" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F34" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>26</v>
+        <v>92</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>93</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F35" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>96</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="F36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>20</v>
+        <v>96</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>96</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D37" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="E37" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F37" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>23</v>
+        <v>99</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>96</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F38" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>102</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="F39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F40" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>116</v>
+        <v>105</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>102</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F41" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>119</v>
+        <v>107</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>108</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="F42" s="1"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>111</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>125</v>
+        <v>111</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>111</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F44" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>128</v>
+        <v>113</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>113</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F45" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>36</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>128</v>
+        <v>36</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F46" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>133</v>
+        <v>116</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>36</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F47" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>137</v>
+        <v>118</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>119</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F48" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D49" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="E49" s="1" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" customFormat="false" ht="26.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="B50" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="E50" s="0" t="s">
-        <v>143</v>
+        <v>124</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B51" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="E51" s="0" t="s">
-        <v>143</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="1"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="B52" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="E52" s="0" t="s">
-        <v>143</v>
+        <v>128</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="B53" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="E53" s="0" t="s">
-        <v>143</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" s="1"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F62" s="1"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C54" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="E54" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F54" s="1"/>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="s">
+      <c r="C63" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="D63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" s="1"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="B64" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E55" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F55" s="1"/>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="s">
+      <c r="C64" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="E64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F64" s="1"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="B65" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E56" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F56" s="1"/>
+      <c r="C65" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F66" s="1"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F67" s="1"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F68" s="1"/>
+    </row>
+    <row r="69" customFormat="false" ht="26.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="F73" s="1"/>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="F74" s="1"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="F75" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="G1:J155"/>
+  <autoFilter ref="F1:G73"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
